--- a/Excel Files/Scenario 12/Expected Data/TC43/Expect Delivery Plan.xlsx
+++ b/Excel Files/Scenario 12/Expected Data/TC43/Expect Delivery Plan.xlsx
@@ -252,7 +252,7 @@
     <t>SG-BAFCO</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-005</t>
+    <t>drsTNs01-2311001-005</t>
   </si>
   <si>
     <t>Sea</t>
@@ -267,7 +267,7 @@
     <t>MTR</t>
   </si>
   <si>
-    <t>sFAs01-2310001</t>
+    <t>sTNs01-2311001</t>
   </si>
   <si>
     <t>SG-BAFCO:20230504-001</t>
@@ -276,7 +276,7 @@
     <t>scenario12:SG-BAFCO:20230504-001</t>
   </si>
   <si>
-    <t>cFA01-2310001</t>
+    <t>cTN01-2311001</t>
   </si>
   <si>
     <t>VN-TTVN</t>
@@ -288,10 +288,10 @@
     <t>scenario12: VN-TTVN-CUS:20230504-001</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-006</t>
-  </si>
-  <si>
-    <t>drsFAs01-2310001-004</t>
+    <t>drsTNs01-2311001-006</t>
+  </si>
+  <si>
+    <t>drsTNs01-2311001-004</t>
   </si>
   <si>
     <t>scenario1220230504002</t>
@@ -312,7 +312,7 @@
     <t>scenario12: VN-TTVN-CUS:20230504-002</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-009</t>
+    <t>drsTNs01-2311001-009</t>
   </si>
   <si>
     <t>scenario1220230504003</t>
@@ -333,10 +333,10 @@
     <t>scenario12: VN-TTVN-CUS:20230504-003</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-010</t>
-  </si>
-  <si>
-    <t>drsFAs01-2310001-007</t>
+    <t>drsTNs01-2311001-010</t>
+  </si>
+  <si>
+    <t>drsTNs01-2311001-007</t>
   </si>
   <si>
     <t>scenario1220230504004</t>
@@ -357,10 +357,10 @@
     <t>scenario12: VN-TTVN-CUS:20230504-004</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-008</t>
-  </si>
-  <si>
-    <t>drsFAs01-2310001-014</t>
+    <t>drsTNs01-2311001-008</t>
+  </si>
+  <si>
+    <t>drsTNs01-2311001-014</t>
   </si>
   <si>
     <t>scenario1220230504005</t>
@@ -378,10 +378,10 @@
     <t>scenario12: VN-TTVN-CUS:20230504-005</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-015</t>
-  </si>
-  <si>
-    <t>drsFAs01-2310001-011</t>
+    <t>drsTNs01-2311001-015</t>
+  </si>
+  <si>
+    <t>drsTNs01-2311001-011</t>
   </si>
   <si>
     <t>scenario1220230504006</t>
@@ -399,34 +399,34 @@
     <t>scenario12: VN-TTVN-CUS:20230504-006</t>
   </si>
   <si>
-    <t>drsFAs01-2310001-012</t>
-  </si>
-  <si>
-    <t>drsFAs01-2310001-013</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-007</t>
-  </si>
-  <si>
-    <t>sFAs01-2310002</t>
-  </si>
-  <si>
-    <t>cFA01-2310002</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-008</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-009</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-010</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-011</t>
-  </si>
-  <si>
-    <t>drsFA01-2310002-012</t>
+    <t>drsTNs01-2311001-012</t>
+  </si>
+  <si>
+    <t>drsTNs01-2311001-013</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-007</t>
+  </si>
+  <si>
+    <t>sTNs01-2311002</t>
+  </si>
+  <si>
+    <t>cTN01-2311002</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-008</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-009</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-010</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-011</t>
+  </si>
+  <si>
+    <t>drsTN01-2311002-012</t>
   </si>
 </sst>
 </file>
@@ -2095,19 +2095,19 @@
         <v>63</v>
       </c>
       <c r="X5" s="32" t="n">
-        <v>45241.0</v>
+        <v>45249.0</v>
       </c>
       <c r="Y5" s="32" t="n">
-        <v>45264.0</v>
+        <v>45267.0</v>
       </c>
       <c r="Z5" s="32" t="n">
-        <v>45271.0</v>
+        <v>45298.0</v>
       </c>
       <c r="AA5" s="32" t="n">
-        <v>45302.0</v>
+        <v>45329.0</v>
       </c>
       <c r="AB5" s="32" t="n">
-        <v>45333.0</v>
+        <v>45358.0</v>
       </c>
     </row>
     <row r="6">
@@ -2127,7 +2127,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="42" t="n">
-        <v>45267.0</v>
+        <v>45288.0</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>69</v>
@@ -2173,10 +2173,10 @@
       <c r="W6" s="45" t="n">
         <v>5.0</v>
       </c>
-      <c r="X6" s="45" t="n">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45" t="n">
         <v>500.0</v>
       </c>
-      <c r="Y6" s="45"/>
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
@@ -2198,7 +2198,7 @@
         <v>68</v>
       </c>
       <c r="G7" s="42" t="n">
-        <v>45295.0</v>
+        <v>45316.0</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>69</v>
@@ -2269,7 +2269,7 @@
         <v>68</v>
       </c>
       <c r="G8" s="42" t="n">
-        <v>45295.0</v>
+        <v>45316.0</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>80</v>
@@ -2340,7 +2340,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="42" t="n">
-        <v>45267.0</v>
+        <v>45288.0</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>87</v>
@@ -2386,10 +2386,10 @@
       <c r="W9" s="43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X9" s="43" t="n">
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43" t="n">
         <v>500.0</v>
       </c>
-      <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
@@ -2411,7 +2411,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="42" t="n">
-        <v>45295.0</v>
+        <v>45316.0</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>87</v>
@@ -2482,7 +2482,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="42" t="n">
-        <v>45267.0</v>
+        <v>45288.0</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>95</v>
@@ -2528,10 +2528,10 @@
       <c r="W11" s="43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X11" s="43" t="n">
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43" t="n">
         <v>1000.0</v>
       </c>
-      <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="43"/>
       <c r="AB11" s="43"/>
@@ -2553,7 +2553,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="42" t="n">
-        <v>45358.0</v>
+        <v>45379.0</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>95</v>
@@ -2624,7 +2624,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="42" t="n">
-        <v>45267.0</v>
+        <v>45288.0</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>103</v>
@@ -2668,10 +2668,10 @@
       <c r="W13" s="43" t="n">
         <v>10.0</v>
       </c>
-      <c r="X13" s="43" t="n">
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43" t="n">
         <v>500.0</v>
       </c>
-      <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="43"/>
@@ -2693,7 +2693,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="42" t="n">
-        <v>45295.0</v>
+        <v>45316.0</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>103</v>
@@ -2762,7 +2762,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="42" t="n">
-        <v>45267.0</v>
+        <v>45288.0</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>110</v>
@@ -2806,10 +2806,10 @@
       <c r="W15" s="43" t="n">
         <v>10.0</v>
       </c>
-      <c r="X15" s="43" t="n">
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43" t="n">
         <v>500.0</v>
       </c>
-      <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
@@ -2831,7 +2831,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="42" t="n">
-        <v>45295.0</v>
+        <v>45316.0</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>110</v>
@@ -2900,7 +2900,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="42" t="n">
-        <v>45328.0</v>
+        <v>45351.0</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>110</v>
@@ -2969,7 +2969,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>69</v>
@@ -3015,10 +3015,10 @@
       <c r="W18" s="45" t="n">
         <v>5.0</v>
       </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45" t="n">
+      <c r="X18" s="45" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y18" s="45"/>
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
@@ -3040,7 +3040,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>80</v>
@@ -3086,10 +3086,10 @@
       <c r="W19" s="43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43" t="n">
+      <c r="X19" s="43" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
@@ -3111,7 +3111,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>87</v>
@@ -3157,10 +3157,10 @@
       <c r="W20" s="43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43" t="n">
+      <c r="X20" s="43" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
@@ -3182,7 +3182,7 @@
         <v>68</v>
       </c>
       <c r="G21" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>95</v>
@@ -3228,10 +3228,10 @@
       <c r="W21" s="43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43" t="n">
+      <c r="X21" s="43" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
@@ -3253,7 +3253,7 @@
         <v>68</v>
       </c>
       <c r="G22" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>103</v>
@@ -3297,10 +3297,10 @@
       <c r="W22" s="43" t="n">
         <v>10.0</v>
       </c>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43" t="n">
+      <c r="X22" s="43" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
@@ -3322,7 +3322,7 @@
         <v>68</v>
       </c>
       <c r="G23" s="42" t="n">
-        <v>45281.0</v>
+        <v>45308.0</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>110</v>
@@ -3366,10 +3366,10 @@
       <c r="W23" s="43" t="n">
         <v>10.0</v>
       </c>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43" t="n">
+      <c r="X23" s="43" t="n">
         <v>100.0</v>
       </c>
+      <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
